--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H2">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I2">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J2">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N2">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q2">
-        <v>0.5362209477777777</v>
+        <v>0.582331705537</v>
       </c>
       <c r="R2">
-        <v>4.82598853</v>
+        <v>5.240985349833001</v>
       </c>
       <c r="S2">
-        <v>0.001114269554742168</v>
+        <v>0.001395712962108234</v>
       </c>
       <c r="T2">
-        <v>0.001114269554742168</v>
+        <v>0.001395712962108234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H3">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I3">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J3">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>23.347821</v>
       </c>
       <c r="O3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q3">
-        <v>1.668655795858333</v>
+        <v>5.610458038479</v>
       </c>
       <c r="R3">
-        <v>15.017902162725</v>
+        <v>50.494122346311</v>
       </c>
       <c r="S3">
-        <v>0.003467474290914037</v>
+        <v>0.01344695631924843</v>
       </c>
       <c r="T3">
-        <v>0.003467474290914037</v>
+        <v>0.01344695631924843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H4">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I4">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J4">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N4">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q4">
-        <v>0.9602837528777777</v>
+        <v>3.611536333856</v>
       </c>
       <c r="R4">
-        <v>8.6425537759</v>
+        <v>32.503827004704</v>
       </c>
       <c r="S4">
-        <v>0.001995473981722732</v>
+        <v>0.008656008296232802</v>
       </c>
       <c r="T4">
-        <v>0.001995473981722732</v>
+        <v>0.008656008296232804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H5">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I5">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J5">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N5">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q5">
-        <v>0.9788857484083334</v>
+        <v>2.075053233803</v>
       </c>
       <c r="R5">
-        <v>8.809971735675001</v>
+        <v>18.675479104227</v>
       </c>
       <c r="S5">
-        <v>0.002034129012569714</v>
+        <v>0.004973417500619737</v>
       </c>
       <c r="T5">
-        <v>0.002034129012569714</v>
+        <v>0.004973417500619737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>71.91377399999999</v>
       </c>
       <c r="I6">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J6">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N6">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O6">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P6">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q6">
-        <v>59.95051817413332</v>
+        <v>19.36368656688466</v>
       </c>
       <c r="R6">
-        <v>539.5546635671999</v>
+        <v>174.273179101962</v>
       </c>
       <c r="S6">
-        <v>0.1245774479145072</v>
+        <v>0.0464102299061318</v>
       </c>
       <c r="T6">
-        <v>0.1245774479145071</v>
+        <v>0.04641022990613181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>71.91377399999999</v>
       </c>
       <c r="I7">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J7">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>23.347821</v>
       </c>
       <c r="O7">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P7">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q7">
         <v>186.558880309606</v>
@@ -883,10 +883,10 @@
         <v>1679.029922786454</v>
       </c>
       <c r="S7">
-        <v>0.387670197065727</v>
+        <v>0.4471380228291065</v>
       </c>
       <c r="T7">
-        <v>0.387670197065727</v>
+        <v>0.4471380228291065</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>71.91377399999999</v>
       </c>
       <c r="I8">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J8">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N8">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O8">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P8">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q8">
-        <v>107.3615434417573</v>
+        <v>120.0907608649173</v>
       </c>
       <c r="R8">
-        <v>966.2538909758158</v>
+        <v>1080.816847784256</v>
       </c>
       <c r="S8">
-        <v>0.2230977728547377</v>
+        <v>0.2878294792725409</v>
       </c>
       <c r="T8">
-        <v>0.2230977728547377</v>
+        <v>0.2878294792725409</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>71.91377399999999</v>
       </c>
       <c r="I9">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J9">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N9">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O9">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P9">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q9">
-        <v>109.441281795418</v>
+        <v>68.99964409787532</v>
       </c>
       <c r="R9">
-        <v>984.971536158762</v>
+        <v>620.9967968808779</v>
       </c>
       <c r="S9">
-        <v>0.2274194785600397</v>
+        <v>0.16537601633669</v>
       </c>
       <c r="T9">
-        <v>0.2274194785600397</v>
+        <v>0.1653760163366901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7126843333333334</v>
+        <v>0.6272673333333333</v>
       </c>
       <c r="H10">
-        <v>2.138053</v>
+        <v>1.881802</v>
       </c>
       <c r="I10">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="J10">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N10">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O10">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P10">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q10">
-        <v>1.782376005377778</v>
+        <v>0.5066988155695555</v>
       </c>
       <c r="R10">
-        <v>16.0413840484</v>
+        <v>4.560289340126</v>
       </c>
       <c r="S10">
-        <v>0.003703785400637656</v>
+        <v>0.001214438606125978</v>
       </c>
       <c r="T10">
-        <v>0.003703785400637656</v>
+        <v>0.001214438606125979</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7126843333333334</v>
+        <v>0.6272673333333333</v>
       </c>
       <c r="H11">
-        <v>2.138053</v>
+        <v>1.881802</v>
       </c>
       <c r="I11">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="J11">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>23.347821</v>
       </c>
       <c r="O11">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P11">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q11">
-        <v>5.546542081390333</v>
+        <v>4.881775139271332</v>
       </c>
       <c r="R11">
-        <v>49.918878732513</v>
+        <v>43.935976253442</v>
       </c>
       <c r="S11">
-        <v>0.01152573953144177</v>
+        <v>0.01170047375953122</v>
       </c>
       <c r="T11">
-        <v>0.01152573953144177</v>
+        <v>0.01170047375953122</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7126843333333334</v>
+        <v>0.6272673333333333</v>
       </c>
       <c r="H12">
-        <v>2.138053</v>
+        <v>1.881802</v>
       </c>
       <c r="I12">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="J12">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N12">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O12">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P12">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q12">
-        <v>3.191943035005778</v>
+        <v>3.142472177543111</v>
       </c>
       <c r="R12">
-        <v>28.727487315052</v>
+        <v>28.282249597888</v>
       </c>
       <c r="S12">
-        <v>0.006632872063499137</v>
+        <v>0.007531771170207615</v>
       </c>
       <c r="T12">
-        <v>0.006632872063499137</v>
+        <v>0.007531771170207617</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7126843333333334</v>
+        <v>0.6272673333333333</v>
       </c>
       <c r="H13">
-        <v>2.138053</v>
+        <v>1.881802</v>
       </c>
       <c r="I13">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="J13">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N13">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O13">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P13">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q13">
-        <v>3.253775290204334</v>
+        <v>1.805546573910444</v>
       </c>
       <c r="R13">
-        <v>29.28397761183901</v>
+        <v>16.249919165194</v>
       </c>
       <c r="S13">
-        <v>0.006761359769461255</v>
+        <v>0.004327473041456787</v>
       </c>
       <c r="T13">
-        <v>0.006761359769461254</v>
+        <v>0.004327473041456788</v>
       </c>
     </row>
   </sheetData>
